--- a/98.xlsx
+++ b/98.xlsx
@@ -73,10 +73,10 @@
     <t>Адрес</t>
   </si>
   <si>
-    <t>Целевое значение показов 01-04.06. (15 суток)</t>
-  </si>
-  <si>
-    <t>Факт показов                                          21-04.06 (15 суток)</t>
+    <t>Целевое значение показов 01-04.04. (15 суток)</t>
+  </si>
+  <si>
+    <t>Факт показов                                          01-04.04 (15 суток)</t>
   </si>
   <si>
     <t>Разница</t>
@@ -742,7 +742,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1122,9 +1122,6 @@
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="15" spans="1:17">
-      <c r="N15" s="1" t="n">
-        <v>1000</v>
-      </c>
       <c r="Q15" s="12">
         <f>SUM(Q6:Q14)</f>
         <v/>
@@ -1143,8 +1140,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:L10"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:L5"/>
@@ -1173,6 +1168,8 @@
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="M13:O13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/98.xlsx
+++ b/98.xlsx
@@ -890,7 +890,7 @@
         <v/>
       </c>
       <c r="P6" s="11" t="n">
-        <v>0</v>
+        <v>44378</v>
       </c>
       <c r="Q6" s="10">
         <f>P6-M6</f>
@@ -918,7 +918,7 @@
         <v/>
       </c>
       <c r="P7" s="11" t="n">
-        <v>0</v>
+        <v>17060</v>
       </c>
       <c r="Q7" s="10">
         <f>P7-M7</f>
@@ -946,7 +946,7 @@
         <v/>
       </c>
       <c r="P8" s="11" t="n">
-        <v>285156</v>
+        <v>38772</v>
       </c>
       <c r="Q8" s="10">
         <f>P8-M8</f>
@@ -974,7 +974,7 @@
         <v/>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0</v>
+        <v>43454</v>
       </c>
       <c r="Q9" s="10">
         <f>P9-M9</f>
@@ -1002,7 +1002,7 @@
         <v/>
       </c>
       <c r="P10" s="11" t="n">
-        <v>0</v>
+        <v>16237</v>
       </c>
       <c r="Q10" s="10">
         <f>P10-M10</f>
@@ -1030,7 +1030,7 @@
         <v/>
       </c>
       <c r="P11" s="11" t="n">
-        <v>0</v>
+        <v>16792</v>
       </c>
       <c r="Q11" s="10">
         <f>P11-M11</f>
@@ -1058,7 +1058,7 @@
         <v/>
       </c>
       <c r="P12" s="11" t="n">
-        <v>186752</v>
+        <v>59225</v>
       </c>
       <c r="Q12" s="10">
         <f>P12-M12</f>
@@ -1086,7 +1086,7 @@
         <v/>
       </c>
       <c r="P13" s="11" t="n">
-        <v>0</v>
+        <v>102298</v>
       </c>
       <c r="Q13" s="10">
         <f>P13-M13</f>
@@ -1114,7 +1114,7 @@
         <v/>
       </c>
       <c r="P14" s="11" t="n">
-        <v>0</v>
+        <v>15624</v>
       </c>
       <c r="Q14" s="10">
         <f>P14-M14</f>

--- a/98.xlsx
+++ b/98.xlsx
@@ -890,7 +890,7 @@
         <v/>
       </c>
       <c r="P6" s="11" t="n">
-        <v>44378</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="10">
         <f>P6-M6</f>
@@ -918,7 +918,7 @@
         <v/>
       </c>
       <c r="P7" s="11" t="n">
-        <v>17060</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="10">
         <f>P7-M7</f>
@@ -946,7 +946,7 @@
         <v/>
       </c>
       <c r="P8" s="11" t="n">
-        <v>116316</v>
+        <v>285156</v>
       </c>
       <c r="Q8" s="10">
         <f>P8-M8</f>
@@ -974,7 +974,7 @@
         <v/>
       </c>
       <c r="P9" s="11" t="n">
-        <v>130362</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="10">
         <f>P9-M9</f>
@@ -1002,7 +1002,7 @@
         <v/>
       </c>
       <c r="P10" s="11" t="n">
-        <v>32474</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="10">
         <f>P10-M10</f>
@@ -1030,7 +1030,7 @@
         <v/>
       </c>
       <c r="P11" s="11" t="n">
-        <v>33584</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="10">
         <f>P11-M11</f>
@@ -1058,7 +1058,7 @@
         <v/>
       </c>
       <c r="P12" s="11" t="n">
-        <v>118450</v>
+        <v>186752</v>
       </c>
       <c r="Q12" s="10">
         <f>P12-M12</f>
@@ -1086,7 +1086,7 @@
         <v/>
       </c>
       <c r="P13" s="11" t="n">
-        <v>204596</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="10">
         <f>P13-M13</f>
@@ -1114,7 +1114,7 @@
         <v/>
       </c>
       <c r="P14" s="11" t="n">
-        <v>31248</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="10">
         <f>P14-M14</f>
